--- a/src/timing.xlsx
+++ b/src/timing.xlsx
@@ -13,17 +13,17 @@
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">timings!$H$4</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">timings!$J$4</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>|Samples</t>
   </si>
@@ -45,11 +45,26 @@
   <si>
     <t>diff</t>
   </si>
+  <si>
+    <t>alpha_py</t>
+  </si>
+  <si>
+    <t>py_sq_diff</t>
+  </si>
+  <si>
+    <t>py_diff</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,7 +499,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -527,11 +542,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -559,6 +579,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -671,37 +692,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.01114946173326E-3</c:v>
+                  <c:v>1.3543341402329E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.96226056663626E-3</c:v>
+                  <c:v>1.8484192823389499E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8594542043751301E-3</c:v>
+                  <c:v>2.90305052737149E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.77620340015281E-3</c:v>
+                  <c:v>4.7499333015788299E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.82173991387173E-3</c:v>
+                  <c:v>0.113618909665893</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3067177532340001E-3</c:v>
+                  <c:v>0.22646733034505701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.44751777111336E-3</c:v>
+                  <c:v>0.45075309850832901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4514037398607903E-3</c:v>
+                  <c:v>0.94426833578010605</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.4974738409490501E-3</c:v>
+                  <c:v>2.3601549917657101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.20157729543838E-2</c:v>
+                  <c:v>5.4147141605986198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.23955837962646E-2</c:v>
+                  <c:v>11.794370234205701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,7 +731,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>timings!$D$1</c:f>
@@ -732,37 +753,98 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.7874936544081787E-5</c:v>
+                  <c:v>5.0664056942890346E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0218607224184021E-5</c:v>
+                  <c:v>1.1399412812150327E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9374682720408936E-5</c:v>
+                  <c:v>2.5332028471445174E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9662430198489966E-4</c:v>
+                  <c:v>5.573046263717938E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2899847705796289E-4</c:v>
+                  <c:v>0.12159373666293682</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.2949670029225293E-4</c:v>
+                  <c:v>0.2634530961030298</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0019928929371602E-3</c:v>
+                  <c:v>0.56743743776037192</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2899847705796289E-3</c:v>
+                  <c:v>1.2159373666293682</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.151967510569875E-3</c:v>
+                  <c:v>2.5939997154759857</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9447930959960984E-2</c:v>
+                  <c:v>5.51224939538647</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1183853797564438E-2</c:v>
+                  <c:v>11.672998719641935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>timings!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alpha_py</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>timings!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.06250428416E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1390634639359999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.53125214208E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5687547125760004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12150010281984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26325022277631999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56700047982592006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2150010281984001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.59200219348992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5080046611660798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.664009870704639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,88 +861,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="310114944"/>
-        <c:axId val="312680832"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>timings!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>n*log_2(n)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>timings!$C$2:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4608</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10240</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22528</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49152</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>106496</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>229376</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>491520</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2228224</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4718592</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="327867008"/>
-        <c:axId val="327864704"/>
+        <c:axId val="301647360"/>
+        <c:axId val="301648896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="310114944"/>
+        <c:axId val="301647360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,7 +875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="312680832"/>
+        <c:crossAx val="301648896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -878,7 +883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312680832"/>
+        <c:axId val="301648896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -889,41 +894,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="310114944"/>
+        <c:crossAx val="301647360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="327864704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="327867008"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="327867008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="327864704"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -1264,18 +1238,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1291,238 +1270,349 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>256</v>
       </c>
       <c r="B2">
-        <v>2.01114946173326E-3</v>
+        <v>1.3543341402329E-2</v>
       </c>
       <c r="C2">
         <f>A2*LOG(A2,2)</f>
         <v>2048</v>
       </c>
       <c r="D2">
-        <f>C2*$I$2</f>
-        <v>1.7874936544081787E-5</v>
+        <f t="shared" ref="D2:D12" si="0">C2*$K$2</f>
+        <v>5.0664056942890346E-3</v>
       </c>
       <c r="E2">
         <f>(B2-D2)^2</f>
-        <v>3.9731433327681447E-6</v>
-      </c>
-      <c r="H2" t="s">
+        <v>7.185843899824302E-5</v>
+      </c>
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:F12" si="1">C2*$K$5</f>
+        <v>5.06250428416E-3</v>
+      </c>
+      <c r="G2">
+        <f>(B2-F2)^2</f>
+        <v>7.1924598224913072E-5</v>
+      </c>
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="I2">
-        <v>8.7279963594149351E-9</v>
+      <c r="K2" s="4">
+        <v>2.4738309054145677E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>512</v>
       </c>
       <c r="B3">
-        <v>1.96226056663626E-3</v>
+        <v>1.8484192823389499E-2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C12" si="0">A3*LOG(A3,2)</f>
+        <f t="shared" ref="C3:C12" si="2">A3*LOG(A3,2)</f>
         <v>4608</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D12" si="1">C3*$I$2</f>
-        <v>4.0218607224184021E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.1399412812150327E-2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E12" si="2">(B3-D3)^2</f>
-        <v>3.6942452937406126E-6</v>
-      </c>
-      <c r="H3" t="s">
+        <f t="shared" ref="E3:E12" si="3">(B3-D3)^2</f>
+        <v>5.0194107807654115E-5</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1390634639359999E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G12" si="4">(B3-F3)^2</f>
+        <v>5.0318567710211898E-5</v>
+      </c>
+      <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <f>SUM(E:E)</f>
-        <v>4.3263905420972635E-4</v>
+        <v>0.1679818462356652</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1024</v>
       </c>
       <c r="B4">
-        <v>1.8594542043751301E-3</v>
+        <v>2.90305052737149E-2</v>
       </c>
       <c r="C4">
+        <f t="shared" si="2"/>
+        <v>10240</v>
+      </c>
+      <c r="D4">
         <f t="shared" si="0"/>
-        <v>10240</v>
-      </c>
-      <c r="D4">
+        <v>2.5332028471445174E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>1.3678730656927294E-5</v>
+      </c>
+      <c r="F4" s="2">
         <f t="shared" si="1"/>
-        <v>8.9374682720408936E-5</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="2"/>
-        <v>3.133181512981406E-6</v>
+        <v>2.53125214208E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>1.382340393053592E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2048</v>
       </c>
       <c r="B5">
-        <v>1.77620340015281E-3</v>
+        <v>4.7499333015788299E-2</v>
       </c>
       <c r="C5">
+        <f t="shared" si="2"/>
+        <v>22528</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
-        <v>22528</v>
-      </c>
-      <c r="D5">
+        <v>5.573046263717938E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>6.7751494844141679E-5</v>
+      </c>
+      <c r="F5" s="2">
         <f t="shared" si="1"/>
-        <v>1.9662430198489966E-4</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>2.4950701273689491E-6</v>
+        <v>5.5687547125760004E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>6.7046850310739715E-5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.47192592E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4096</v>
       </c>
       <c r="B6">
-        <v>1.82173991387173E-3</v>
+        <v>0.113618909665893</v>
       </c>
       <c r="C6">
+        <f t="shared" si="2"/>
+        <v>49152</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>49152</v>
-      </c>
-      <c r="D6">
+        <v>0.12159373666293682</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>6.3597865632779061E-5</v>
+      </c>
+      <c r="F6" s="2">
         <f t="shared" si="1"/>
-        <v>4.2899847705796289E-4</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>1.9397287098180764E-6</v>
+        <v>0.12150010281984</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>6.2113205529821101E-5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3">
+        <f>SUM(G2:G12)</f>
+        <v>0.16787791902417479</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8192</v>
       </c>
       <c r="B7">
-        <v>2.3067177532340001E-3</v>
+        <v>0.22646733034505701</v>
       </c>
       <c r="C7">
+        <f t="shared" si="2"/>
+        <v>106496</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
-        <v>106496</v>
-      </c>
-      <c r="D7">
+        <v>0.2634530961030298</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>1.3679468687036332E-3</v>
+      </c>
+      <c r="F7" s="2">
         <f t="shared" si="1"/>
-        <v>9.2949670029225293E-4</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>1.8967378286659748E-6</v>
+        <v>0.26325022277631999</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>1.3529811756098635E-3</v>
+      </c>
+      <c r="K7" t="b">
+        <f>K6&lt;K3</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16384</v>
       </c>
       <c r="B8">
-        <v>2.44751777111336E-3</v>
+        <v>0.45075309850832901</v>
       </c>
       <c r="C8">
+        <f t="shared" si="2"/>
+        <v>229376</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>229376</v>
-      </c>
-      <c r="D8">
+        <v>0.56743743776037192</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>1.3615235026685843E-2</v>
+      </c>
+      <c r="F8" s="2">
         <f t="shared" si="1"/>
-        <v>2.0019928929371602E-3</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>1.9849241707391769E-7</v>
+        <v>0.56700047982592006</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>1.3513453663197415E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>32768</v>
       </c>
       <c r="B9">
-        <v>4.4514037398607903E-3</v>
+        <v>0.94426833578010605</v>
       </c>
       <c r="C9">
+        <f t="shared" si="2"/>
+        <v>491520</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
-        <v>491520</v>
-      </c>
-      <c r="D9">
+        <v>1.2159373666293682</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>7.3804062322577371E-2</v>
+      </c>
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
-        <v>4.2899847705796289E-3</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>2.6056083643792525E-8</v>
+        <v>1.2150010281984001</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>7.329619074405859E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>65536</v>
       </c>
       <c r="B10">
-        <v>6.4974738409490501E-3</v>
+        <v>2.3601549917657101</v>
       </c>
       <c r="C10">
+        <f t="shared" si="2"/>
+        <v>1048576</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
-        <v>1048576</v>
-      </c>
-      <c r="D10">
+        <v>2.5939997154759857</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>5.4683354807135154E-2</v>
+      </c>
+      <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>9.151967510569875E-3</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>7.0463366420570328E-6</v>
+        <v>2.59200219348992</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>5.3753124947346485E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>131072</v>
       </c>
       <c r="B11">
-        <v>1.20157729543838E-2</v>
+        <v>5.4147141605986198</v>
       </c>
       <c r="C11">
+        <f t="shared" si="2"/>
+        <v>2228224</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
-        <v>2228224</v>
-      </c>
-      <c r="D11">
+        <v>5.51224939538647</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>9.5131220251210638E-3</v>
+      </c>
+      <c r="F11" s="2">
         <f t="shared" si="1"/>
-        <v>1.9447930959960984E-2</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>5.5236972619865023E-5</v>
+        <v>5.5080046611660798</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>8.7031174961272589E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>262144</v>
       </c>
       <c r="B12">
-        <v>2.23955837962646E-2</v>
+        <v>11.794370234205701</v>
       </c>
       <c r="C12">
+        <f t="shared" si="2"/>
+        <v>4718592</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
-        <v>4718592</v>
-      </c>
-      <c r="D12">
+        <v>11.672998719641935</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>1.4731044547502393E-2</v>
+      </c>
+      <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>4.1183853797564438E-2</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>3.5299908964174341E-4</v>
+        <v>11.664009870704639</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>1.6993824372128947E-2</v>
       </c>
     </row>
   </sheetData>

--- a/src/timing.xlsx
+++ b/src/timing.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="18060" windowHeight="12405"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="18060" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="timings" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -58,14 +58,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
     <numFmt numFmtId="166" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,8 +382,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -498,6 +504,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -544,12 +605,18 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -608,24 +675,22 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.7626797447635703E-2"/>
+          <c:y val="4.6624746874202268E-2"/>
+          <c:w val="0.79597760337721635"/>
+          <c:h val="0.81697268820589197"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -692,42 +757,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.3543341402329E-2</c:v>
+                  <c:v>3.2629999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8484192823389499E-2</c:v>
+                  <c:v>3.9880000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.90305052737149E-2</c:v>
+                  <c:v>5.2310000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7499333015788299E-2</c:v>
+                  <c:v>7.8790000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.113618909665893</c:v>
+                  <c:v>1.4246999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22646733034505701</c:v>
+                  <c:v>3.1863000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.45075309850832901</c:v>
+                  <c:v>6.3152E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94426833578010605</c:v>
+                  <c:v>0.13333400000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3601549917657101</c:v>
+                  <c:v>0.28786699999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4147141605986198</c:v>
+                  <c:v>0.75870800000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.794370234205701</c:v>
+                  <c:v>1.7825340000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -753,42 +817,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5.0664056942890346E-3</c:v>
+                  <c:v>151.23024175778292</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1399412812150327E-2</c:v>
+                  <c:v>340.26804395501159</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5332028471445174E-2</c:v>
+                  <c:v>756.15120878891457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.573046263717938E-2</c:v>
+                  <c:v>1663.5326593356122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12159373666293682</c:v>
+                  <c:v>3629.5258021867903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2634530961030298</c:v>
+                  <c:v>7863.9725714047117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56743743776037192</c:v>
+                  <c:v>16937.787076871686</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2159373666293682</c:v>
+                  <c:v>36295.2580218679</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5939997154759857</c:v>
+                  <c:v>77429.883779984855</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.51224939538647</c:v>
+                  <c:v>164538.50303246782</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.672998719641935</c:v>
+                  <c:v>348434.47700993187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -811,90 +874,75 @@
             <c:numRef>
               <c:f>timings!$F$2:$F$12</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5.06250428416E-3</c:v>
+                  <c:v>7.5001575081600001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1390634639359999E-2</c:v>
+                  <c:v>1.6875354393300001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.53125214208E-2</c:v>
+                  <c:v>3.7500787540799998E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5687547125760004E-2</c:v>
+                  <c:v>8.2501732589699995E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12150010281984</c:v>
+                  <c:v>1.80003780196E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26325022277631999</c:v>
+                  <c:v>3.9000819042399999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56700047982592006</c:v>
+                  <c:v>8.4001764091300002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2150010281984001</c:v>
+                  <c:v>0.180003780196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.59200219348992</c:v>
+                  <c:v>0.38400806441800001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5080046611660798</c:v>
+                  <c:v>0.81601713688699995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.664009870704639</c:v>
+                  <c:v>1.7280362898799999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="301647360"/>
-        <c:axId val="301648896"/>
+        <c:axId val="108932096"/>
+        <c:axId val="109085440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="301647360"/>
+        <c:axId val="108932096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301648896"/>
+        <c:crossAx val="109085440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301648896"/>
+        <c:axId val="109085440"/>
         <c:scaling>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301647360"/>
+        <c:crossAx val="108932096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -902,11 +950,210 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>timings!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>timings!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.2629999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9880000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2310000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8790000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4246999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1863000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3152E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13333400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28786699999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75870800000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7825340000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Expected</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>timings!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.5001575081600001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6875354393300001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7500787540799998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2501732589699995E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.80003780196E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9000819042399999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4001764091300002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.180003780196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38400806441800001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81601713688699995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7280362898799999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="159968256"/>
+        <c:axId val="159994624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="159968256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="159994624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="159994624"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="159968256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -920,16 +1167,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>595311</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>128586</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -943,6 +1190,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1026,7 +1303,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1061,7 +1337,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1237,28 +1512,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1270,19 +1547,19 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:11">
+      <c r="A2" s="5">
         <v>256</v>
       </c>
-      <c r="B2">
-        <v>1.3543341402329E-2</v>
+      <c r="B2" s="6">
+        <v>3.2629999999999998E-3</v>
       </c>
       <c r="C2">
         <f>A2*LOG(A2,2)</f>
@@ -1290,329 +1567,319 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D12" si="0">C2*$K$2</f>
-        <v>5.0664056942890346E-3</v>
+        <v>151.23024175778292</v>
       </c>
       <c r="E2">
         <f>(B2-D2)^2</f>
-        <v>7.185843899824302E-5</v>
-      </c>
-      <c r="F2" s="2">
-        <f t="shared" ref="F2:F12" si="1">C2*$K$5</f>
-        <v>5.06250428416E-3</v>
+        <v>22869.599104206925</v>
+      </c>
+      <c r="F2">
+        <v>7.5001575081600001E-4</v>
       </c>
       <c r="G2">
         <f>(B2-F2)^2</f>
-        <v>7.1924598224913072E-5</v>
+        <v>6.3150898366468722E-6</v>
       </c>
       <c r="J2" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="4">
-        <v>2.4738309054145677E-6</v>
+        <v>7.3842891483292442E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:11">
+      <c r="A3" s="5">
         <v>512</v>
       </c>
-      <c r="B3">
-        <v>1.8484192823389499E-2</v>
+      <c r="B3" s="6">
+        <v>3.9880000000000002E-3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C12" si="2">A3*LOG(A3,2)</f>
+        <f t="shared" ref="C3:C12" si="1">A3*LOG(A3,2)</f>
         <v>4608</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>1.1399412812150327E-2</v>
+        <v>340.26804395501159</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E12" si="3">(B3-D3)^2</f>
-        <v>5.0194107807654115E-5</v>
-      </c>
-      <c r="F3" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1390634639359999E-2</v>
+        <f t="shared" ref="E3:E12" si="2">(B3-D3)^2</f>
+        <v>115779.62777495527</v>
+      </c>
+      <c r="F3">
+        <v>1.6875354393300001E-3</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G12" si="4">(B3-F3)^2</f>
-        <v>5.0318567710211898E-5</v>
+        <f t="shared" ref="G3:G12" si="3">(B3-F3)^2</f>
+        <v>5.2921371948986178E-6</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
       </c>
       <c r="K3">
         <f>SUM(E:E)</f>
-        <v>0.1679818462356652</v>
+        <v>156156069416.50912</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:11">
+      <c r="A4" s="5">
         <v>1024</v>
       </c>
-      <c r="B4">
-        <v>2.90305052737149E-2</v>
+      <c r="B4" s="6">
+        <v>5.2310000000000004E-3</v>
       </c>
       <c r="C4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10240</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>2.5332028471445174E-2</v>
+        <v>756.15120878891457</v>
       </c>
       <c r="E4">
+        <f t="shared" si="2"/>
+        <v>571756.73972635367</v>
+      </c>
+      <c r="F4">
+        <v>3.7500787540799998E-3</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="3"/>
-        <v>1.3678730656927294E-5</v>
-      </c>
-      <c r="F4" s="2">
+        <v>2.1931277366172469E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="5">
+        <v>2048</v>
+      </c>
+      <c r="B5" s="6">
+        <v>7.8790000000000006E-3</v>
+      </c>
+      <c r="C5">
         <f t="shared" si="1"/>
-        <v>2.53125214208E-2</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="4"/>
-        <v>1.382340393053592E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2048</v>
-      </c>
-      <c r="B5">
-        <v>4.7499333015788299E-2</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="2"/>
         <v>22528</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>5.573046263717938E-2</v>
+        <v>1663.5326593356122</v>
       </c>
       <c r="E5">
+        <f t="shared" si="2"/>
+        <v>2767314.6947906464</v>
+      </c>
+      <c r="F5">
+        <v>8.2501732589699995E-3</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="3"/>
-        <v>6.7751494844141679E-5</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="1"/>
-        <v>5.5687547125760004E-2</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="4"/>
-        <v>6.7046850310739715E-5</v>
+        <v>1.3776958817440986E-7</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="1">
-        <v>2.47192592E-6</v>
+        <f>F2/C2</f>
+        <v>3.6621862832812501E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:11">
+      <c r="A6" s="5">
         <v>4096</v>
       </c>
-      <c r="B6">
-        <v>0.113618909665893</v>
+      <c r="B6" s="6">
+        <v>1.4246999999999999E-2</v>
       </c>
       <c r="C6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>49152</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.12159373666293682</v>
+        <v>3629.5258021867903</v>
       </c>
       <c r="E6">
+        <f t="shared" si="2"/>
+        <v>13173354.129234433</v>
+      </c>
+      <c r="F6">
+        <v>1.80003780196E-2</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="3"/>
-        <v>6.3597865632779061E-5</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.12150010281984</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="4"/>
-        <v>6.2113205529821101E-5</v>
+        <v>1.408784655801642E-5</v>
       </c>
       <c r="J6" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="3">
         <f>SUM(G2:G12)</f>
-        <v>0.16787791902417479</v>
+        <v>1.8189197324284707E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:11">
+      <c r="A7" s="5">
         <v>8192</v>
       </c>
-      <c r="B7">
-        <v>0.22646733034505701</v>
+      <c r="B7" s="6">
+        <v>3.1863000000000002E-2</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>106496</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.2634530961030298</v>
+        <v>7863.9725714047117</v>
       </c>
       <c r="E7">
+        <f t="shared" si="2"/>
+        <v>61841563.465304799</v>
+      </c>
+      <c r="F7">
+        <v>3.9000819042399999E-2</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="3"/>
-        <v>1.3679468687036332E-3</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="1"/>
-        <v>0.26325022277631999</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="4"/>
-        <v>1.3529811756098635E-3</v>
+        <v>5.0948460682048004E-5</v>
       </c>
       <c r="K7" t="b">
         <f>K6&lt;K3</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:11">
+      <c r="A8" s="5">
         <v>16384</v>
       </c>
-      <c r="B8">
-        <v>0.45075309850832901</v>
+      <c r="B8" s="6">
+        <v>6.3152E-2</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>229376</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.56743743776037192</v>
+        <v>16937.787076871686</v>
       </c>
       <c r="E8">
+        <f t="shared" si="2"/>
+        <v>286886491.75517076</v>
+      </c>
+      <c r="F8">
+        <v>8.4001764091300002E-2</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="3"/>
-        <v>1.3615235026685843E-2</v>
-      </c>
-      <c r="F8" s="2">
+        <v>4.3471266266286303E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5">
+        <v>32768</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.13333400000000001</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="1"/>
-        <v>0.56700047982592006</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="4"/>
-        <v>1.3513453663197415E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>32768</v>
-      </c>
-      <c r="B9">
-        <v>0.94426833578010605</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="2"/>
         <v>491520</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>1.2159373666293682</v>
+        <v>36295.2580218679</v>
       </c>
       <c r="E9">
+        <f t="shared" si="2"/>
+        <v>1317336076.107878</v>
+      </c>
+      <c r="F9">
+        <v>0.180003780196</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="3"/>
-        <v>7.3804062322577371E-2</v>
-      </c>
-      <c r="F9" s="2">
+        <v>2.1780683835429526E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="5">
+        <v>65536</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.28786699999999998</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="1"/>
-        <v>1.2150010281984001</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="4"/>
-        <v>7.329619074405859E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>65536</v>
-      </c>
-      <c r="B10">
-        <v>2.3601549917657101</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="2"/>
         <v>1048576</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>2.5939997154759857</v>
+        <v>77429.883779984855</v>
       </c>
       <c r="E10">
+        <f t="shared" si="2"/>
+        <v>5995342323.2481203</v>
+      </c>
+      <c r="F10">
+        <v>0.38400806441800001</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="3"/>
-        <v>5.4683354807135154E-2</v>
-      </c>
-      <c r="F10" s="2">
+        <v>9.2431042674260295E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="5">
+        <v>131072</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.75870800000000005</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="1"/>
-        <v>2.59200219348992</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="4"/>
-        <v>5.3753124947346485E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>131072</v>
-      </c>
-      <c r="B11">
-        <v>5.4147141605986198</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="2"/>
         <v>2228224</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>5.51224939538647</v>
+        <v>164538.50303246782</v>
       </c>
       <c r="E11">
+        <f t="shared" si="2"/>
+        <v>27072669307.383942</v>
+      </c>
+      <c r="F11">
+        <v>0.81601713688699995</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="3"/>
-        <v>9.5131220251210638E-3</v>
-      </c>
-      <c r="F11" s="2">
+        <v>3.2843371707328927E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="7">
+        <v>262144</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1.7825340000000001</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="1"/>
-        <v>5.5080046611660798</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="4"/>
-        <v>8.7031174961272589E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>262144</v>
-      </c>
-      <c r="B12">
-        <v>11.794370234205701</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="2"/>
         <v>4718592</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>11.672998719641935</v>
+        <v>348434.47700993187</v>
       </c>
       <c r="E12">
+        <f t="shared" si="2"/>
+        <v>121405342579.75809</v>
+      </c>
+      <c r="F12">
+        <v>1.7280362898799999</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="3"/>
-        <v>1.4731044547502393E-2</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="1"/>
-        <v>11.664009870704639</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
-        <v>1.6993824372128947E-2</v>
+        <v>2.9700004083235672E-3</v>
       </c>
     </row>
   </sheetData>
